--- a/tests/data/Full_Architecture_Golden_Config_1.1.5.xlsx
+++ b/tests/data/Full_Architecture_Golden_Config_1.1.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lynns/sources/git/canu/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasbates/canu-container/canu/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB0CFC1-BA03-BA45-97C0-17401F2AD742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100FBE82-86D9-0640-A3A1-B346532A1D08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{4E3EDB71-9423-764F-AB16-D8E153A84166}"/>
+    <workbookView xWindow="78080" yWindow="2140" windowWidth="28800" windowHeight="17500" xr2:uid="{4E3EDB71-9423-764F-AB16-D8E153A84166}"/>
   </bookViews>
   <sheets>
     <sheet name="SWITCH_TO_SWITCH" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="74">
   <si>
     <t>Source</t>
   </si>
@@ -247,13 +247,25 @@
   </si>
   <si>
     <t>u31</t>
+  </si>
+  <si>
+    <t>sw-edge01</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>sw-edge02</t>
+  </si>
+  <si>
+    <t>u19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -265,6 +277,19 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -283,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -306,18 +331,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 3 2" xfId="2" xr:uid="{F2F8A737-96F6-6848-99EC-C4EC7C8466B2}"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -630,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807AEA7A-78A2-1142-B8D3-13084383B4B0}">
-  <dimension ref="J14:U44"/>
+  <dimension ref="J14:U48"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="G17" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1526,6 +1611,122 @@
         <v>51</v>
       </c>
     </row>
+    <row r="45" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O45" s="7">
+        <v>1</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q45" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T45" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J46" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O46" s="7">
+        <v>2</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q46" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T46" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J47" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" t="s">
+        <v>73</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T47">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" t="s">
+        <v>73</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T48">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1535,7 +1736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C3018C-CE0C-E04E-8947-8C874399EC7B}">
   <dimension ref="J14:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J19" workbookViewId="0">
+    <sheetView topLeftCell="J19" workbookViewId="0">
       <selection activeCell="T54" sqref="T54"/>
     </sheetView>
   </sheetViews>
